--- a/code/excels/kvConfig/item_config.xlsx
+++ b/code/excels/kvConfig/item_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>道具id</t>
   </si>
@@ -35,6 +35,27 @@
     <t>道具icon</t>
   </si>
   <si>
+    <t>道具品质</t>
+  </si>
+  <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>道具描述</t>
+  </si>
+  <si>
+    <t>获得自动使用</t>
+  </si>
+  <si>
+    <t>批量使用</t>
+  </si>
+  <si>
+    <t>使用脚本</t>
+  </si>
+  <si>
+    <t>使用参数</t>
+  </si>
+  <si>
     <t>Itemid</t>
   </si>
   <si>
@@ -50,25 +71,88 @@
     <t>ItemIcon</t>
   </si>
   <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>经验</t>
+    <t>Itemquality</t>
+  </si>
+  <si>
+    <t>ItemType</t>
+  </si>
+  <si>
+    <t>ItemDes</t>
+  </si>
+  <si>
+    <t>AutoUse</t>
+  </si>
+  <si>
+    <t>BatchUseable</t>
+  </si>
+  <si>
+    <t>UseScript</t>
+  </si>
+  <si>
+    <t>UseArgs</t>
+  </si>
+  <si>
+    <t>原石</t>
+  </si>
+  <si>
+    <t>星石</t>
+  </si>
+  <si>
+    <t>货币最大为999</t>
   </si>
   <si>
     <t>天梯积分</t>
   </si>
   <si>
+    <t>大型宝瓶</t>
+  </si>
+  <si>
+    <t>GetPrize</t>
+  </si>
+  <si>
+    <t>10001|10002</t>
+  </si>
+  <si>
+    <t>超级宝瓶</t>
+  </si>
+  <si>
+    <t>符石宝瓶</t>
+  </si>
+  <si>
+    <t>处决神符</t>
+  </si>
+  <si>
+    <t>魔化神符</t>
+  </si>
+  <si>
+    <t>强化神符</t>
+  </si>
+  <si>
+    <t>资源神符</t>
+  </si>
+  <si>
+    <t>神器神符</t>
+  </si>
+  <si>
+    <t>抽卡神符</t>
+  </si>
+  <si>
     <t>字段注释</t>
   </si>
   <si>
     <t>刷怪波束表</t>
   </si>
   <si>
+    <t>使用类型</t>
+  </si>
+  <si>
     <t>字段</t>
   </si>
   <si>
     <t>itemdata</t>
+  </si>
+  <si>
+    <t>UseType</t>
   </si>
   <si>
     <t>type</t>
@@ -95,8 +179,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -108,8 +192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,29 +202,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,49 +246,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,9 +313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,24 +328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +345,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,32 +539,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +596,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -519,49 +636,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,137 +654,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -715,13 +799,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1043,26 +1130,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.58333333333333" style="8" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="7.08333333333333" customWidth="1"/>
-    <col min="4" max="4" width="12.8916666666667" customWidth="1"/>
-    <col min="5" max="5" width="7.58333333333333" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.0833333333333" customWidth="1"/>
+    <col min="4" max="4" width="8.83333333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.45" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="12.9166666666667" customWidth="1"/>
+    <col min="12" max="12" width="12.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="31.5" customHeight="1" spans="1:5">
+    <row r="1" s="5" customFormat="1" ht="31.5" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1078,56 +1168,184 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="6" customFormat="1" ht="36.75" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="36.75" customHeight="1" spans="1:12">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:4">
-      <c r="A3" s="5">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="6">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:4">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9">
+        <v>10001</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="9">
+        <v>10002</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="9">
+        <v>10003</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9">
+        <v>10004</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9">
+        <v>10005</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9">
+        <v>10006</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="9">
+        <v>10007</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="9">
+        <v>10008</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="9">
+        <v>10009</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1140,25 +1358,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="4" width="9.41666666666667" customWidth="1"/>
     <col min="5" max="6" width="14.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1172,66 +1390,158 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="10:11">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="10:11">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
